--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
@@ -14,17 +14,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1598036978" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1598036978" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1598036978" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1598036978"/>
+      <pm:revision xmlns:pm="smNativeData" day="1605106043" val="978" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1605106043" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1605106043" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1605106043"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -221,28 +221,46 @@
     <t>10.128.103.104</t>
   </si>
   <si>
-    <t>BBB-PS-DCLink</t>
-  </si>
-  <si>
-    <t>FBP-DCLink</t>
+    <t>IA-03RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-03RaPS01:PS-DCLink-SI, IA-03RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.103.121</t>
+  </si>
+  <si>
+    <t>IA-03RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-03M2:PS-QFP, SI-03M2:PS-QDP1, SI-03M2:PS-QDP2, SI-04M1:PS-QFB, SI-04M1:PS-QDB1, SI-04M1:PS-QDB2, SI-03M1:PS-QS, SI-03M2:PS-QS</t>
   </si>
   <si>
     <t>10.128.103.122</t>
   </si>
   <si>
-    <t>BBB-SI-CORRETORAS1</t>
-  </si>
-  <si>
-    <t>CH1,CH2,CV1,CV2,CH3,CH4,CV3</t>
+    <t>IA-03RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-03M1:PS-CH, SI-03M1:PS-CV, SI-03M2:PS-CH, SI-03M2:PS-CV, SI-03C2:PS-CH, SI-03C2:PS-CV-1, SI-03C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.103.131</t>
+  </si>
+  <si>
+    <t>IA-03RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-03C1:PS-Q1, SI-03C1:PS-Q2, SI-03C2:PS-Q3, SI-03C2:PS-Q4, SI-03C4:PS-Q1, SI-03C4:PS-Q2, SI-03C3:PS-Q3, SI-03C3:PS-Q4, SI-03C1:PS-QS, SI-03C2:PS-QS, SI-03C3:PS-QS</t>
   </si>
   <si>
     <t>10.128.103.132</t>
   </si>
   <si>
-    <t>BBB-SI-CORRETORAS2</t>
-  </si>
-  <si>
-    <t>CV4,CH5,CH6,CV5,CV6,CH7,CV7</t>
+    <t>IA-03RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-03C1:PS-CH, SI-03C1:PS-CV, SI-03C4:PS-CH, SI-03C4:PS-CV, SI-03C3:PS-CH, SI-03C3:PS-CV-1, SI-03C3:PS-CV-2</t>
   </si>
 </sst>
 </file>
@@ -268,7 +286,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598036978" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -283,7 +301,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598036978" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -299,7 +317,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598036978" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -321,7 +339,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1598036978" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605106043" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -343,7 +361,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598036978"/>
+          <pm:border xmlns:pm="smNativeData" id="1605106043"/>
         </ext>
       </extLst>
     </border>
@@ -362,7 +380,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598036978"/>
+          <pm:border xmlns:pm="smNativeData" id="1605106043"/>
         </ext>
       </extLst>
     </border>
@@ -383,10 +401,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1598036978" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1605106043" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1598036978" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1605106043" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -656,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="C1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -879,7 +897,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1598036978" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605106043" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -888,14 +906,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1598036978" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1598036978" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1598036978" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605106043" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -906,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1053,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -1074,13 +1092,47 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1598036978" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605106043" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1089,14 +1141,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1598036978" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1598036978" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1598036978" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605106043" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -10,21 +10,23 @@
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
     <sheet name="103" sheetId="2" r:id="rId5"/>
+    <sheet name="104" sheetId="3" r:id="rId6"/>
+    <sheet name="105" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1605106043" val="978" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1605106043" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1605106043" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1605106043"/>
+      <pm:revision xmlns:pm="smNativeData" day="1617130223" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1617130223" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1617130223" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1617130223"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -261,6 +263,147 @@
   </si>
   <si>
     <t>SI-03C1:PS-CH, SI-03C1:PS-CV, SI-03C4:PS-CH, SI-03C4:PS-CV, SI-03C3:PS-CH, SI-03C3:PS-CV-1, SI-03C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.104.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA04--VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.104.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA04-VAC-4UHV-BO-SI</t>
+  </si>
+  <si>
+    <t>11,12,13,14</t>
+  </si>
+  <si>
+    <t>10.128.104.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA04-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.104.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA04-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.104.104</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-04RaPS01:PS-DCLink-SI, IA-04RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.104.105</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>10.128.104.121</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>10.128.104.122</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>10.128.104.131</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>10.128.104.132</t>
+  </si>
+  <si>
+    <t>IA-04RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>10.128.105.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA05--VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.105.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA05-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>10.128.105.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA05-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>10.128.105.106</t>
+  </si>
+  <si>
+    <t>BBB-SALA05-CON-MBTEMP-BO-06-10</t>
+  </si>
+  <si>
+    <t>10.128.105.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA05-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.105.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA05-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.105.104</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-05RaPS01:PS-DCLink-SI, IA-05RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.105.105</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>10.128.105.121</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>10.128.105.122</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>10.128.105.131</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>10.128.105.132</t>
+  </si>
+  <si>
+    <t>IA-05RaCtrl:CO-PSCtrl-SI4</t>
   </si>
 </sst>
 </file>
@@ -286,7 +429,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -301,7 +444,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -317,7 +460,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1605106043" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -339,7 +482,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1605106043" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1617130223" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -361,7 +504,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1605106043"/>
+          <pm:border xmlns:pm="smNativeData" id="1617130223"/>
         </ext>
       </extLst>
     </border>
@@ -380,7 +523,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1605106043"/>
+          <pm:border xmlns:pm="smNativeData" id="1617130223"/>
         </ext>
       </extLst>
     </border>
@@ -401,10 +544,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1605106043" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1617130223" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1605106043" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1617130223" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -675,7 +818,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -897,7 +1040,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1605106043" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -906,14 +1049,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605106043" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -935,6 +1078,241 @@
     <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
     <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
     <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="12.423423" customWidth="1" style="1"/>
+    <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
     <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
     <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
     <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
@@ -961,10 +1339,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -975,164 +1353,126 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1605106043" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1141,14 +1481,239 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1605106043" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605106043" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
+    <col min="5" max="5" width="51.693694" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
@@ -16,17 +16,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617130223" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617130223" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617130223" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617130223"/>
+      <pm:revision xmlns:pm="smNativeData" day="1617801532" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1617801532" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1617801532" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1617801532"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -307,30 +307,45 @@
     <t>IA-04RaCtrl:CO-PSCtrl-BO</t>
   </si>
   <si>
+    <t>BO-07U:PS-CH, BO-07U:PS-CV, BO-09U:PS-CH, BO-09U:PS-CV</t>
+  </si>
+  <si>
     <t>10.128.104.121</t>
   </si>
   <si>
     <t>IA-04RaCtrl:CO-PSCtrl-SI1</t>
   </si>
   <si>
+    <t>SI-04M2:PS-QFB, SI-04M2:PS-QDB1, SI-04M2:PS-QDB2, SI-05M1:PS-QFA, SI-05M1:PS-QDA, SI-04M1:PS-QS, SI-04M2:PS-QS</t>
+  </si>
+  <si>
     <t>10.128.104.122</t>
   </si>
   <si>
     <t>IA-04RaCtrl:CO-PSCtrl-SI2</t>
   </si>
   <si>
+    <t>SI-04M1:PS-CH, SI-04M1:PS-CV, SI-04M2:PS-CH, SI-04M2:PS-CV, SI-04C2:PS-CH, SI-04C2:PS-CV-1, SI-04C2:PS-CV-2</t>
+  </si>
+  <si>
     <t>10.128.104.131</t>
   </si>
   <si>
     <t>IA-04RaCtrl:CO-PSCtrl-SI3</t>
   </si>
   <si>
+    <t>SI-04C1:PS-Q1, SI-04C1:PS-Q2, SI-04C2:PS-Q3, SI-04C2:PS-Q4, SI-04C4:PS-Q1, SI-04C4:PS-Q2, SI-04C3:PS-Q3, SI-04C3:PS-Q4, SI-04C1:PS-QS, SI-04C2:PS-QS, SI-04C3:PS-QS</t>
+  </si>
+  <si>
     <t>10.128.104.132</t>
   </si>
   <si>
     <t>IA-04RaCtrl:CO-PSCtrl-SI4</t>
   </si>
   <si>
+    <t>SI-04C1:PS-CH, SI-04C1:PS-CV, SI-04C4:PS-CH, SI-04C4:PS-CV, SI-04C3:PS-CH, SI-04C3:PS-CV-1, SI-04C3:PS-CV-2</t>
+  </si>
+  <si>
     <t>10.128.105.101</t>
   </si>
   <si>
@@ -382,28 +397,43 @@
     <t>IA-05RaCtrl:CO-PSCtrl-BO</t>
   </si>
   <si>
+    <t>BO-11U:PS-CH, BO-11U:PS-CV, BO-13U:PS-CH, BO-13U:PS-CV</t>
+  </si>
+  <si>
     <t>10.128.105.121</t>
   </si>
   <si>
     <t>IA-05RaCtrl:CO-PSCtrl-SI1</t>
   </si>
   <si>
+    <t>SI-05M2:PS-QFA, SI-05M2:PS-QDA, SI-06M1:PS-QFB, SI-06M1:PS-QDB1, SI-06M1:PS-QDB2, SI-05M1:PS-QS, SI-05M2:PS-QS</t>
+  </si>
+  <si>
     <t>10.128.105.122</t>
   </si>
   <si>
     <t>IA-05RaCtrl:CO-PSCtrl-SI2</t>
   </si>
   <si>
+    <t>SI-05M1:PS-CH, SI-05M1:PS-CV, SI-05M2:PS-CH, SI-05M2:PS-CV, SI-05C2:PS-CH, SI-05C2:PS-CV-1, SI-05C2:PS-CV-2</t>
+  </si>
+  <si>
     <t>10.128.105.131</t>
   </si>
   <si>
     <t>IA-05RaCtrl:CO-PSCtrl-SI3</t>
   </si>
   <si>
+    <t>SI-05C1:PS-Q1, SI-05C1:PS-Q2, SI-05C2:PS-Q3, SI-05C2:PS-Q4, SI-05C4:PS-Q1, SI-05C4:PS-Q2, SI-05C3:PS-Q3, SI-05C3:PS-Q4, SI-05C1:PS-QS, SI-05C2:PS-QS, SI-05C3:PS-QS</t>
+  </si>
+  <si>
     <t>10.128.105.132</t>
   </si>
   <si>
     <t>IA-05RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-05C1:PS-CH, SI-05C1:PS-CV, SI-05C4:PS-CH, SI-05C4:PS-CV, SI-05C3:PS-CH, SI-05C3:PS-CV-1, SI-05C3:PS-CV-2</t>
   </si>
 </sst>
 </file>
@@ -429,7 +459,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -444,7 +474,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -460,7 +490,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617130223" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -482,7 +512,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617130223" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1617801532" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -504,7 +534,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617130223"/>
+          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
         </ext>
       </extLst>
     </border>
@@ -523,7 +553,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617130223"/>
+          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
         </ext>
       </extLst>
     </border>
@@ -544,10 +574,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617130223" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1617801532" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1617130223" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1617801532" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -1040,7 +1070,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1049,14 +1079,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1069,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1275,7 +1305,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1284,14 +1314,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1304,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1423,56 +1453,83 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1481,14 +1538,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1502,7 +1559,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1536,10 +1593,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1550,10 +1607,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1564,10 +1621,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1578,10 +1635,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1592,10 +1649,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1606,10 +1663,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1620,10 +1677,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1632,15 +1689,15 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1648,56 +1705,83 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617130223" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1706,14 +1790,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617130223" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617130223" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
@@ -16,17 +16,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617801532" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617801532" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617801532" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617801532"/>
+      <pm:revision xmlns:pm="smNativeData" day="1619202305" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1619202305" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1619202305" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1619202305"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -173,6 +173,45 @@
   </si>
   <si>
     <t>SI-02C1:PS-CH, SI-02C1:PS-CV, SI-02C4:PS-CH, SI-02C4:PS-CV, SI-02C3:PS-CH, SI-02C3:PS-CV-1, SI-02C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.102.151</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-M2</t>
+  </si>
+  <si>
+    <t>CountingPRU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10.128.102.152</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10.128.102.153</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10.128.102.154</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-03-M1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>10.128.103.101</t>
@@ -451,7 +490,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -459,7 +498,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -474,7 +513,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -490,7 +529,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -498,27 +537,31 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617801532" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -534,26 +577,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
+          <pm:border xmlns:pm="smNativeData" id="1619202305"/>
         </ext>
       </extLst>
     </border>
@@ -561,12 +585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -574,10 +599,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617801532" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1619202305" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1617801532" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1619202305" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -845,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1066,11 +1091,67 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1079,14 +1160,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1134,10 +1215,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1148,52 +1229,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1204,10 +1285,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1218,10 +1299,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1230,15 +1311,15 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1247,15 +1328,15 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1264,15 +1345,15 @@
         <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1281,15 +1362,15 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1298,14 +1379,14 @@
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1314,14 +1395,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1334,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1369,10 +1450,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1383,24 +1464,24 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -1411,10 +1492,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1425,10 +1506,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -1437,15 +1518,15 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -1454,15 +1535,15 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1471,15 +1552,15 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1488,15 +1569,15 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1505,15 +1586,15 @@
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1522,14 +1603,14 @@
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1538,14 +1619,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1593,10 +1674,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1607,52 +1688,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1663,10 +1744,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1677,10 +1758,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1689,15 +1770,15 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1706,15 +1787,15 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1723,15 +1804,15 @@
         <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1740,15 +1821,15 @@
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1757,15 +1838,15 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1774,14 +1855,14 @@
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1790,14 +1871,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -8,210 +8,235 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="102" sheetId="1" r:id="rId4"/>
-    <sheet name="103" sheetId="2" r:id="rId5"/>
-    <sheet name="104" sheetId="3" r:id="rId6"/>
-    <sheet name="105" sheetId="4" r:id="rId7"/>
+    <sheet name="6" sheetId="1" r:id="rId4"/>
+    <sheet name="102" sheetId="2" r:id="rId5"/>
+    <sheet name="103" sheetId="3" r:id="rId6"/>
+    <sheet name="104" sheetId="4" r:id="rId7"/>
+    <sheet name="105" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619202305" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619202305" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619202305" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619202305"/>
+      <pm:revision xmlns:pm="smNativeData" day="1622660517" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1622660517" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1622660517" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1622660517"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
+  <si>
+    <t>BBB_IP_1</t>
+  </si>
+  <si>
+    <t>BBB_IP_2</t>
+  </si>
+  <si>
+    <t>BBB_HOSTNAME</t>
+  </si>
+  <si>
+    <t>DEVICE_TYPE</t>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+  </si>
+  <si>
+    <t>DEVICE_NAME</t>
+  </si>
+  <si>
+    <t>10.0.6.91</t>
+  </si>
+  <si>
+    <t>10.0.6.81</t>
+  </si>
+  <si>
+    <t>TESTE-MBTEMP</t>
+  </si>
+  <si>
+    <t>MBTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2 </t>
+  </si>
+  <si>
+    <t>10.0.6.92</t>
+  </si>
+  <si>
+    <t>10.0.6.82</t>
+  </si>
+  <si>
+    <t>TESTE-FONTES</t>
+  </si>
+  <si>
+    <t>PowerSupply</t>
+  </si>
+  <si>
+    <t>IA-02RaPS01:PS-DCLink-SI, IA-02RaPS01:PS-DCLink-AS</t>
+  </si>
+  <si>
+    <t>10.128.102.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-VAC-MKS</t>
+  </si>
+  <si>
+    <t>MKS</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>10.128.102.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>4UHV</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>10.128.102.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA02--VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>14,15,16</t>
+  </si>
+  <si>
+    <t>10.128.102.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.102.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>21,22,23</t>
+  </si>
+  <si>
+    <t>10.128.102.119</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-RF-PETRA7</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>10.128.102.104</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>10.128.102.105</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3,4 </t>
+  </si>
+  <si>
+    <t>BO-03U:PS-CH, BO-03U:PS-CV, BO-05U:PS-CH, BO-05U:PS-CV</t>
+  </si>
+  <si>
+    <t>10.128.102.121</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>SI-02M2:PS-QFB, SI-02M2:PS-QDB1, SI-02M2:PS-QDB2, SI-03M1:PS-QFP, SI-03M1:PS-QDP1, SI-03M1:PS-QDP2, SI-02M1:PS-QS, SI-02M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.102.122</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>SI-02M1:PS-CH, SI-02M1:PS-CV, SI-02M2:PS-CH, SI-02M2:PS-CV, SI-02C2:PS-CH, SI-02C2:PS-CV-1, SI-02C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.102.131</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>SI-02C1:PS-Q1, SI-02C1:PS-Q2, SI-02C2:PS-Q3, SI-02C2:PS-Q4, SI-02C4:PS-Q1, SI-02C4:PS-Q2, SI-02C3:PS-Q3, SI-02C3:PS-Q4, SI-02C1:PS-QS, SI-02C2:PS-QS, SI-02C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.102.132</t>
+  </si>
+  <si>
+    <t>IA-02RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-02C1:PS-CH, SI-02C1:PS-CV, SI-02C4:PS-CH, SI-02C4:PS-CV, SI-02C3:PS-CH, SI-02C3:PS-CV-1, SI-02C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.102.151</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-M2</t>
+  </si>
+  <si>
+    <t>CountingPRU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10.128.102.152</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10.128.102.153</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10.128.102.154</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-03-M1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
   <si>
     <t>BBB_IP</t>
-  </si>
-  <si>
-    <t>BBB_HOSTNAME</t>
-  </si>
-  <si>
-    <t>DEVICE_TYPE</t>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-  </si>
-  <si>
-    <t>DEVICE_NAME</t>
-  </si>
-  <si>
-    <t>10.128.102.101</t>
-  </si>
-  <si>
-    <t>BBB-SALA02-VAC-MKS</t>
-  </si>
-  <si>
-    <t>MKS</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>10.128.102.102</t>
-  </si>
-  <si>
-    <t>BBB-SALA02-VAC-4UHV-BO</t>
-  </si>
-  <si>
-    <t>4UHV</t>
-  </si>
-  <si>
-    <t>11,12,13</t>
-  </si>
-  <si>
-    <t>10.128.102.103</t>
-  </si>
-  <si>
-    <t>BBB-SALA02--VAC-4UHV-SI</t>
-  </si>
-  <si>
-    <t>14,15,16</t>
-  </si>
-  <si>
-    <t>10.128.102.117</t>
-  </si>
-  <si>
-    <t>BBB-SALA02-CON-MBTEMP-SR-BEFORE-BC</t>
-  </si>
-  <si>
-    <t>MBTemp</t>
-  </si>
-  <si>
-    <t>10.128.102.118</t>
-  </si>
-  <si>
-    <t>BBB-SALA02-CON-MBTEMP-SR-AFTER-BC</t>
-  </si>
-  <si>
-    <t>21,22,23</t>
-  </si>
-  <si>
-    <t>10.128.102.119</t>
-  </si>
-  <si>
-    <t>BBB-SALA02-CON-MBTEMP-RF-PETRA7</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>10.128.102.104</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-DCLinkCtrl</t>
-  </si>
-  <si>
-    <t>PowerSupply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2 </t>
-  </si>
-  <si>
-    <t>IA-02RaPS01:PS-DCLink-SI, IA-02RaPS01:PS-DCLink-AS</t>
-  </si>
-  <si>
-    <t>10.128.102.105</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-PSCtrl-BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,4 </t>
-  </si>
-  <si>
-    <t>BO-03U:PS-CH, BO-03U:PS-CV, BO-05U:PS-CH, BO-05U:PS-CV</t>
-  </si>
-  <si>
-    <t>10.128.102.121</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-PSCtrl-SI1</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>SI-02M2:PS-QFB, SI-02M2:PS-QDB1, SI-02M2:PS-QDB2, SI-03M1:PS-QFP, SI-03M1:PS-QDP1, SI-03M1:PS-QDP2, SI-02M1:PS-QS, SI-02M2:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.102.122</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-PSCtrl-SI2</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>SI-02M1:PS-CH, SI-02M1:PS-CV, SI-02M2:PS-CH, SI-02M2:PS-CV, SI-02C2:PS-CH, SI-02C2:PS-CV-1, SI-02C2:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.102.131</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-PSCtrl-SI3</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>SI-02C1:PS-Q1, SI-02C1:PS-Q2, SI-02C2:PS-Q3, SI-02C2:PS-Q4, SI-02C4:PS-Q1, SI-02C4:PS-Q2, SI-02C3:PS-Q3, SI-02C3:PS-Q4, SI-02C1:PS-QS, SI-02C2:PS-QS, SI-02C3:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.102.132</t>
-  </si>
-  <si>
-    <t>IA-02RaCtrl:CO-PSCtrl-SI4</t>
-  </si>
-  <si>
-    <t>SI-02C1:PS-CH, SI-02C1:PS-CV, SI-02C4:PS-CH, SI-02C4:PS-CV, SI-02C3:PS-CH, SI-02C3:PS-CV-1, SI-02C3:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.102.151</t>
-  </si>
-  <si>
-    <t>COUNTINGPRU-SI-02-M2</t>
-  </si>
-  <si>
-    <t>CountingPRU</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10.128.102.152</t>
-  </si>
-  <si>
-    <t>COUNTINGPRU-SI-02-C2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10.128.102.153</t>
-  </si>
-  <si>
-    <t>COUNTINGPRU-SI-02-C3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10.128.102.154</t>
-  </si>
-  <si>
-    <t>COUNTINGPRU-SI-03-M1</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>10.128.103.101</t>
@@ -498,7 +523,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1622660517" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -513,7 +538,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1622660517" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -529,7 +554,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1622660517" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -544,7 +569,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619202305" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1622660517" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -553,15 +578,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1622660517" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -577,7 +613,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619202305"/>
+          <pm:border xmlns:pm="smNativeData" id="1622660517"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1622660517"/>
         </ext>
       </extLst>
     </border>
@@ -599,10 +654,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619202305" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1622660517" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1619202305" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1622660517" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -619,10 +674,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -870,24 +925,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
-    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
-    <col min="2" max="2" width="39.720721" customWidth="1" style="1"/>
-    <col min="3" max="3" width="13.063063" customWidth="1" style="1"/>
-    <col min="4" max="4" width="19.360360" customWidth="1" style="1"/>
-    <col min="5" max="5" width="48.675676" customWidth="1" style="1"/>
-    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
-    <col min="7" max="16384" width="10.000000" style="1"/>
+    <col min="1" max="2" width="15.774775" customWidth="1" style="1"/>
+    <col min="3" max="3" width="39.720721" customWidth="1" style="1"/>
+    <col min="4" max="4" width="13.063063" customWidth="1" style="1"/>
+    <col min="5" max="5" width="19.360360" customWidth="1" style="1"/>
+    <col min="6" max="6" width="48.675676" customWidth="1" style="1"/>
+    <col min="7" max="7" width="15.000000" customWidth="1" style="1"/>
+    <col min="8" max="16384" width="10.000000" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -903,271 +958,69 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1622660517" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622660517" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1177,6 +1030,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView view="normal" topLeftCell="A61" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="2" width="15.774775" customWidth="1" style="1"/>
+    <col min="3" max="3" width="39.720721" customWidth="1" style="1"/>
+    <col min="4" max="4" width="13.063063" customWidth="1" style="1"/>
+    <col min="5" max="5" width="19.360360" customWidth="1" style="1"/>
+    <col min="6" max="6" width="48.675676" customWidth="1" style="1"/>
+    <col min="7" max="7" width="15.000000" customWidth="1" style="1"/>
+    <col min="8" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1622660517" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622660517" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1197,196 +1365,196 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1622660517" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1395,14 +1563,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622660517" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1411,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1432,185 +1600,185 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1622660517" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1619,14 +1787,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622660517" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1635,7 +1803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1656,213 +1824,213 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619202305" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1622660517" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1871,14 +2039,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619202305" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1622660517" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619202305" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622660517" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,28 +5,31 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
     <sheet name="103" sheetId="2" r:id="rId5"/>
     <sheet name="104" sheetId="3" r:id="rId6"/>
     <sheet name="105" sheetId="4" r:id="rId7"/>
+    <sheet name="106" sheetId="5" r:id="rId8"/>
+    <sheet name="107" sheetId="6" r:id="rId9"/>
+    <sheet name="108" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617801532" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617801532" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617801532" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617801532"/>
+      <pm:revision xmlns:pm="smNativeData" day="1626094064" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1626094064" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1626094064" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1626094064"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="234">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -175,6 +178,45 @@
     <t>SI-02C1:PS-CH, SI-02C1:PS-CV, SI-02C4:PS-CH, SI-02C4:PS-CV, SI-02C3:PS-CH, SI-02C3:PS-CV-1, SI-02C3:PS-CV-2</t>
   </si>
   <si>
+    <t>10.128.102.151</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-M2</t>
+  </si>
+  <si>
+    <t>CountingPRU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10.128.102.152</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10.128.102.153</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-02-C3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10.128.102.154</t>
+  </si>
+  <si>
+    <t>COUNTINGPRU-SI-03-M1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>10.128.103.101</t>
   </si>
   <si>
@@ -367,7 +409,7 @@
     <t>10.128.105.106</t>
   </si>
   <si>
-    <t>BBB-SALA05-CON-MBTEMP-BO-06-10</t>
+    <t>BBB-SALA05-CON-MBTEMP-BO-11-15</t>
   </si>
   <si>
     <t>10.128.105.117</t>
@@ -434,6 +476,261 @@
   </si>
   <si>
     <t>SI-05C1:PS-CH, SI-05C1:PS-CV, SI-05C4:PS-CH, SI-05C4:PS-CV, SI-05C3:PS-CH, SI-05C3:PS-CV-1, SI-05C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.106.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA06--VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.106.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA06-VAC-4UHV-BO-SI</t>
+  </si>
+  <si>
+    <t>10.128.106.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA06-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>10.128.106.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA06-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.106.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA06-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.106.104</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-06RaPS01:PS-DCLink-SI, IA-06RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.106.105</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>10.128.106.121</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-06M2:PS-QFB, SI-06M2:PS-QDB1, SI-06M2:PS-QDB2, SI-05M1:PS-QFA, SI-05M1:PS-QDA, SI-06M1:PS-QS, SI-06M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.106.122</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-06M1:PS-CH, SI-06M1:PS-CV, SI-06M2:PS-CH, SI-06M2:PS-CV, SI-06C2:PS-CH, SI-06C2:PS-CV-1, SI-06C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.106.131</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-06C1:PS-Q1, SI-06C1:PS-Q2, SI-06C2:PS-Q3, SI-06C2:PS-Q4, SI-06C4:PS-Q1, SI-06C4:PS-Q2, SI-06C3:PS-Q3, SI-06C3:PS-Q4, SI-06C1:PS-QS, SI-06C2:PS-QS, SI-06C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.106.132</t>
+  </si>
+  <si>
+    <t>IA-06RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-06C1:PS-CH, SI-06C1:PS-CV, SI-06C4:PS-CH, SI-06C4:PS-CV, SI-06C3:PS-CH, SI-06C3:PS-CV-1, SI-06C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.107.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA07--VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.107.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA07-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>10.128.107.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA07-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>10.128.107.106</t>
+  </si>
+  <si>
+    <t>BBB-SALA07-CON-MBTEMP-BO-16-20</t>
+  </si>
+  <si>
+    <t>10.128.107.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA07-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.107.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA07-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.107.104</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-07RaPS01:PS-DCLink-SI, IA-07RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.107.105</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>BO-15U:PS-CH, BO-15U:PS-CV, BO-17U:PS-CH, BO-17U:PS-CV</t>
+  </si>
+  <si>
+    <t>10.128.107.121</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-07M2:PS-QFA, SI-07M2:PS-QDA, SI-06M1:PS-QFB, SI-06M1:PS-QDB1, SI-06M1:PS-QDB2, SI-07M1:PS-QS, SI-07M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.107.122</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-07M1:PS-CH, SI-07M1:PS-CV, SI-07M2:PS-CH, SI-07M2:PS-CV, SI-07C2:PS-CH, SI-07C2:PS-CV-1, SI-07C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.107.131</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-07C1:PS-Q1, SI-07C1:PS-Q2, SI-07C2:PS-Q3, SI-07C2:PS-Q4, SI-07C4:PS-Q1, SI-07C4:PS-Q2, SI-07C3:PS-Q3, SI-07C3:PS-Q4, SI-07C1:PS-QS, SI-07C2:PS-QS, SI-07C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.107.132</t>
+  </si>
+  <si>
+    <t>IA-07RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-07C1:PS-CH, SI-07C1:PS-CV, SI-07C4:PS-CH, SI-07C4:PS-CV, SI-07C3:PS-CH, SI-07C3:PS-CV-1, SI-07C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.108.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA08-VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.108.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA08-VAC-4UHV-BO-SI</t>
+  </si>
+  <si>
+    <t>10.128.108.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA08-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>10.128.108.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA08-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.108.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA08-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.108.104</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-08RaPS01:PS-DCLink-SI, IA-08RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.108.105</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>BO-19U:PS-CH, BO-19U:PS-CV, BO-21U:PS-CH, BO-21U:PS-CV</t>
+  </si>
+  <si>
+    <t>10.128.108.121</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-08M2:PS-QFB, SI-08M2:PS-QDB1, SI-08M2:PS-QDB2, SI-05M1:PS-QFA, SI-05M1:PS-QDA, SI-08M1:PS-QS, SI-08M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.108.122</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-08M1:PS-CH, SI-08M1:PS-CV, SI-08M2:PS-CH, SI-08M2:PS-CV, SI-08C2:PS-CH, SI-08C2:PS-CV-1, SI-08C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.108.131</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-08C1:PS-Q1, SI-08C1:PS-Q2, SI-08C2:PS-Q3, SI-08C2:PS-Q4, SI-08C4:PS-Q1, SI-08C4:PS-Q2, SI-08C3:PS-Q3, SI-08C3:PS-Q4, SI-08C1:PS-QS, SI-08C2:PS-QS, SI-08C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.108.132</t>
+  </si>
+  <si>
+    <t>IA-08RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-08C1:PS-CH, SI-08C1:PS-CV, SI-08C4:PS-CH, SI-08C4:PS-CV, SI-08C3:PS-CH, SI-08C3:PS-CV-1, SI-08C3:PS-CV-2</t>
   </si>
 </sst>
 </file>
@@ -451,7 +748,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -459,7 +756,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1626094064" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -474,7 +771,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1626094064" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -490,10 +787,25 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617801532" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1626094064" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1626094064" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -512,7 +824,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617801532" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1626094064" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -534,7 +846,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
+          <pm:border xmlns:pm="smNativeData" id="1626094064"/>
         </ext>
       </extLst>
     </border>
@@ -553,7 +865,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617801532"/>
+          <pm:border xmlns:pm="smNativeData" id="1626094064"/>
         </ext>
       </extLst>
     </border>
@@ -561,12 +873,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -574,10 +887,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617801532" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1626094064" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1617801532" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1626094064" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -594,10 +907,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -845,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1066,11 +1379,67 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1079,14 +1448,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1134,10 +1503,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1148,52 +1517,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1204,10 +1573,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1218,10 +1587,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1230,15 +1599,15 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1247,15 +1616,15 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1264,15 +1633,15 @@
         <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1281,15 +1650,15 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1298,14 +1667,14 @@
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1314,14 +1683,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1334,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1369,10 +1738,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1383,24 +1752,24 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -1411,10 +1780,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1425,10 +1794,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -1437,15 +1806,15 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -1454,15 +1823,15 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1471,15 +1840,15 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1488,15 +1857,15 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1505,15 +1874,15 @@
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1522,14 +1891,14 @@
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1538,14 +1907,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1559,7 +1928,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1593,10 +1962,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1607,52 +1976,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1663,10 +2032,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1677,10 +2046,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1689,15 +2058,15 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1706,15 +2075,15 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1723,15 +2092,15 @@
         <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1740,15 +2109,15 @@
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1757,15 +2126,15 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1774,14 +2143,14 @@
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617801532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1790,14 +2159,742 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617801532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617801532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
+    <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
+    <col min="5" max="5" width="51.693694" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
+    <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1626094064" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1626094064" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1626094064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="101" sheetId="1" r:id="rId4"/>
@@ -43,17 +43,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1659029778" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1659029778" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1659029778" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1659029778"/>
+      <pm:revision xmlns:pm="smNativeData" day="1684761372" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1684761372" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1684761372" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1684761372"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="734">
   <si>
     <t>BBB_IP_1</t>
   </si>
@@ -679,12 +679,6 @@
     <t>IA-06RaPS01:PS-DCLink-SI, IA-06RaPS02:PS-DCLink-SI</t>
   </si>
   <si>
-    <t>10.128.106.105</t>
-  </si>
-  <si>
-    <t>IA-06RaCtrl:CO-PSCtrl-BO</t>
-  </si>
-  <si>
     <t>10.128.106.121</t>
   </si>
   <si>
@@ -994,180 +988,189 @@
     <t xml:space="preserve">10.128.110.102  </t>
   </si>
   <si>
-    <t>BBB-SALA10-VAC-4UHV</t>
+    <t>BBB-SALA10-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>10.128.110.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA10-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>13, 14, 15</t>
+  </si>
+  <si>
+    <t>10.128.110.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA10-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.128.110.118 </t>
+  </si>
+  <si>
+    <t>BBB-SALA10-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.110.104</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-10RaPS01:PS-DCLink-AS, IA-10RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.110.105</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>BO-23U:PS-CH, BO-23U:PS-CV, BO-25U:PS-CH, BO-25U:PS-CV</t>
+  </si>
+  <si>
+    <t>10.128.110.121</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-10M2:PS-QFB, SI-10M2:PS-QDB1, SI-10M2:PS-QDB2, SI-11M1:PS-QFP, SI-11M1:PS-QDP1, SI-11M1:PS-QDP2, SI-10M1:PS-QS, SI-10M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.110.122</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-10M1:PS-CH, SI-10M1:PS-CV, SI-10M2:PS-CH, SI-10M2:PS-CV, SI-10C2:PS-CH, SI-10C2:PS-CV-1, SI-10C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.110.131</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-10C1:PS-Q1, SI-10C1:PS-Q2, SI-10C2:PS-Q3, SI-10C2:PS-Q4, SI-10C4:PS-Q1, SI-10C4:PS-Q2, SI-10C3:PS-Q3, SI-10C3:PS-Q4, SI-10C1:PS-QS, SI-10C2:PS-QS, SI-10C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.110.132</t>
+  </si>
+  <si>
+    <t>IA-10RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-10C1:PS-CH, SI-10C1:PS-CV, SI-10C4:PS-CH, SI-10C4:PS-CV, SI-10C3:PS-CH, SI-10C3:PS-CV-1, SI-10C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.111.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBB-SALA11-VAC-MKS </t>
+  </si>
+  <si>
+    <t>10.128.111.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA11VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>10.128.111.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBB-SALA11VAC-4UHV-SI </t>
+  </si>
+  <si>
+    <t>10.128.111.104</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-DCLinkCtrl</t>
+  </si>
+  <si>
+    <t>IA-11RaPS01:PS-DCLink-AS, IA-11RaPS02:PS-DCLink-SI</t>
+  </si>
+  <si>
+    <t>10.128.111.105</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-PSCtrl-BO</t>
+  </si>
+  <si>
+    <t>BO-27U:PS-CH, BO-27U:PS-CV, BO-29U:PS-CH, BO-29U:PS-CV</t>
+  </si>
+  <si>
+    <t>10.128.111.106</t>
+  </si>
+  <si>
+    <t>BBB-SALA11-CON-MBTEMP-BO-26-30</t>
+  </si>
+  <si>
+    <t>10.128.111.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA11-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.111.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA11-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.111.121</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-PSCtrl-SI1</t>
+  </si>
+  <si>
+    <t>SI-11M2:PS-QFP, SI-11M2:PS-QDP1, SI-11M2:PS-QDP2, SI-12M1:PS-QFB, SI-12M1:PS-QDB1, SI-12M1:PS-QDB2, SI-11M1:PS-QS, SI-11M2:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.111.122</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-PSCtrl-SI2</t>
+  </si>
+  <si>
+    <t>SI-11M1:PS-CH, SI-11M1:PS-CV, SI-11M2:PS-CH, SI-11M2:PS-CV, SI-11C2:PS-CH, SI-11C2:PS-CV-1, SI-11C2:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.111.131</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-PSCtrl-SI3</t>
+  </si>
+  <si>
+    <t>SI-11C1:PS-Q1, SI-11C1:PS-Q2, SI-11C2:PS-Q3, SI-11C2:PS-Q4, SI-11C4:PS-Q1, SI-11C4:PS-Q2, SI-11C3:PS-Q3, SI-11C3:PS-Q4, SI-11C1:PS-QS, SI-11C2:PS-QS, SI-11C3:PS-QS</t>
+  </si>
+  <si>
+    <t>10.128.111.132</t>
+  </si>
+  <si>
+    <t>IA-11RaCtrl:CO-PSCtrl-SI4</t>
+  </si>
+  <si>
+    <t>SI-11C1:PS-CH, SI-11C1:PS-CV, SI-11C4:PS-CH, SI-11C4:PS-CV, SI-11C3:PS-CH, SI-11C3:PS-CV-1, SI-11C3:PS-CV-2</t>
+  </si>
+  <si>
+    <t>10.128.112.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA12-VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.112.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA12-VAC-4UHV-BO-SI</t>
   </si>
   <si>
     <t>11,12, 13, 14</t>
   </si>
   <si>
-    <t>10.128.110.117</t>
-  </si>
-  <si>
-    <t>BBB-SALA10-CON-MBTEMP-SR-BEFORE-BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.128.110.118 </t>
-  </si>
-  <si>
-    <t>BBB-SALA10-CON-MBTEMP-SR-AFTER-BC</t>
-  </si>
-  <si>
-    <t>10.128.110.104</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-DCLinkCtrl</t>
-  </si>
-  <si>
-    <t>IA-10RaPS01:PS-DCLink-AS, IA-10RaPS02:PS-DCLink-SI</t>
-  </si>
-  <si>
-    <t>10.128.110.105</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-PSCtrl-BO</t>
-  </si>
-  <si>
-    <t>BO-23U:PS-CH, BO-23U:PS-CV, BO-25U:PS-CH, BO-25U:PS-CV</t>
-  </si>
-  <si>
-    <t>10.128.110.121</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-PSCtrl-SI1</t>
-  </si>
-  <si>
-    <t>SI-10M2:PS-QFB, SI-10M2:PS-QDB1, SI-10M2:PS-QDB2, SI-11M1:PS-QFP, SI-11M1:PS-QDP1, SI-11M1:PS-QDP2, SI-10M1:PS-QS, SI-10M2:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.110.122</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-PSCtrl-SI2</t>
-  </si>
-  <si>
-    <t>SI-10M1:PS-CH, SI-10M1:PS-CV, SI-10M2:PS-CH, SI-10M2:PS-CV, SI-10C2:PS-CH, SI-10C2:PS-CV-1, SI-10C2:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.110.131</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-PSCtrl-SI3</t>
-  </si>
-  <si>
-    <t>SI-10C1:PS-Q1, SI-10C1:PS-Q2, SI-10C2:PS-Q3, SI-10C2:PS-Q4, SI-10C4:PS-Q1, SI-10C4:PS-Q2, SI-10C3:PS-Q3, SI-10C3:PS-Q4, SI-10C1:PS-QS, SI-10C2:PS-QS, SI-10C3:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.110.132</t>
-  </si>
-  <si>
-    <t>IA-10RaCtrl:CO-PSCtrl-SI4</t>
-  </si>
-  <si>
-    <t>SI-10C1:PS-CH, SI-10C1:PS-CV, SI-10C4:PS-CH, SI-10C4:PS-CV, SI-10C3:PS-CH, SI-10C3:PS-CV-1, SI-10C3:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.111.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB-SALA11-VAC-MKS </t>
-  </si>
-  <si>
-    <t>10.128.111.102</t>
-  </si>
-  <si>
-    <t>BBB-SALA11VAC-4UHV-BO</t>
-  </si>
-  <si>
-    <t>10.128.111.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB-SALA11VAC-4UHV-SI </t>
-  </si>
-  <si>
-    <t>10.128.111.104</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-DCLinkCtrl</t>
-  </si>
-  <si>
-    <t>IA-11RaPS01:PS-DCLink-AS, IA-11RaPS02:PS-DCLink-SI</t>
-  </si>
-  <si>
-    <t>10.128.111.105</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-PSCtrl-BO</t>
-  </si>
-  <si>
-    <t>BO-27U:PS-CH, BO-27U:PS-CV, BO-29U:PS-CH, BO-29U:PS-CV</t>
-  </si>
-  <si>
-    <t>10.128.111.106</t>
-  </si>
-  <si>
-    <t>BBB-SALA11-CON-MBTEMP-BO-26-30</t>
-  </si>
-  <si>
-    <t>10.128.111.117</t>
-  </si>
-  <si>
-    <t>BBB-SALA11-CON-MBTEMP-SR-BEFORE-BC</t>
-  </si>
-  <si>
-    <t>10.128.111.118</t>
-  </si>
-  <si>
-    <t>BBB-SALA11-CON-MBTEMP-SR-AFTER-BC</t>
-  </si>
-  <si>
-    <t>10.128.111.121</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-PSCtrl-SI1</t>
-  </si>
-  <si>
-    <t>SI-11M2:PS-QFP, SI-11M2:PS-QDP1, SI-11M2:PS-QDP2, SI-12M1:PS-QFB, SI-12M1:PS-QDB1, SI-12M1:PS-QDB2, SI-11M1:PS-QS, SI-11M2:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.111.122</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-PSCtrl-SI2</t>
-  </si>
-  <si>
-    <t>SI-11M1:PS-CH, SI-11M1:PS-CV, SI-11M2:PS-CH, SI-11M2:PS-CV, SI-11C2:PS-CH, SI-11C2:PS-CV-1, SI-11C2:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.111.131</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-PSCtrl-SI3</t>
-  </si>
-  <si>
-    <t>SI-11C1:PS-Q1, SI-11C1:PS-Q2, SI-11C2:PS-Q3, SI-11C2:PS-Q4, SI-11C4:PS-Q1, SI-11C4:PS-Q2, SI-11C3:PS-Q3, SI-11C3:PS-Q4, SI-11C1:PS-QS, SI-11C2:PS-QS, SI-11C3:PS-QS</t>
-  </si>
-  <si>
-    <t>10.128.111.132</t>
-  </si>
-  <si>
-    <t>IA-11RaCtrl:CO-PSCtrl-SI4</t>
-  </si>
-  <si>
-    <t>SI-11C1:PS-CH, SI-11C1:PS-CV, SI-11C4:PS-CH, SI-11C4:PS-CV, SI-11C3:PS-CH, SI-11C3:PS-CV-1, SI-11C3:PS-CV-2</t>
-  </si>
-  <si>
-    <t>10.128.112.101</t>
-  </si>
-  <si>
-    <t>BBB-SALA12-VAC-MKS</t>
-  </si>
-  <si>
-    <t>10.128.112.102</t>
-  </si>
-  <si>
-    <t>BBB-SALA12-VAC-4UHV-BO-SI</t>
-  </si>
-  <si>
     <t>10.128.112.117</t>
   </si>
   <si>
@@ -1228,90 +1231,57 @@
     <t>10.128.113.101</t>
   </si>
   <si>
-    <t xml:space="preserve">BBB-SALA13-VAC-MKS </t>
-  </si>
-  <si>
     <t>10.128.113.102</t>
   </si>
   <si>
-    <t>BBB-SALA13VAC-4UHV-BO</t>
-  </si>
-  <si>
     <t>10.128.113.103</t>
   </si>
   <si>
-    <t xml:space="preserve">BBB-SALA13VAC-4UHV-SI </t>
-  </si>
-  <si>
     <t>10.128.113.104</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-DCLinkCtrl</t>
-  </si>
-  <si>
     <t>IA-13RaPS01:PS-DCLink-AS, IA-13RaPS02:PS-DCLink-SI</t>
   </si>
   <si>
     <t>10.128.113.105</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-PSCtrl-BO</t>
-  </si>
-  <si>
     <t>BO-31U:PS-CH, BO-31U:PS-CV, BO-33U:PS-CH, BO-33U:PS-CV</t>
   </si>
   <si>
     <t>10.128.113.106</t>
   </si>
   <si>
-    <t>BBB-SALA13-CON-MBTEMP-BO-31-35</t>
+    <t>BBB-SALA11-CON-MBTEMP-BO-31-35</t>
   </si>
   <si>
     <t>10.128.113.117</t>
   </si>
   <si>
-    <t>BBB-SALA13-CON-MBTEMP-SR-BEFORE-BC</t>
-  </si>
-  <si>
     <t>10.128.113.118</t>
   </si>
   <si>
-    <t>BBB-SALA13-CON-MBTEMP-SR-AFTER-BC</t>
-  </si>
-  <si>
     <t>10.128.113.121</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-PSCtrl-SI1</t>
-  </si>
-  <si>
     <t>SI-13M2:PS-QFA, SI-13M2:PS-QDA, SI-14M1:PS-QFB, SI-14M1:PS-QDB1, SI-14M1:PS-QDB2, SI-13M1:PS-QS, SI-13M2:PS-QS</t>
   </si>
   <si>
     <t>10.128.113.122</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-PSCtrl-SI2</t>
-  </si>
-  <si>
     <t>SI-13M1:PS-CH, SI-13M1:PS-CV, SI-13M2:PS-CH, SI-13M2:PS-CV, SI-13C2:PS-CH, SI-13C2:PS-CV-1, SI-13C2:PS-CV-2</t>
   </si>
   <si>
     <t>10.128.113.131</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-PSCtrl-SI3</t>
-  </si>
-  <si>
     <t>SI-13C1:PS-Q1, SI-13C1:PS-Q2, SI-13C2:PS-Q3, SI-13C2:PS-Q4, SI-13C4:PS-Q1, SI-13C4:PS-Q2, SI-13C3:PS-Q3, SI-13C3:PS-Q4, SI-13C1:PS-QS, SI-13C2:PS-QS, SI-13C3:PS-QS</t>
   </si>
   <si>
     <t>10.128.113.132</t>
   </si>
   <si>
-    <t>IA-13RaCtrl:CO-PSCtrl-SI4</t>
-  </si>
-  <si>
     <t>SI-13C1:PS-CH, SI-13C1:PS-CV, SI-13C4:PS-CH, SI-13C4:PS-CV, SI-13C3:PS-CH, SI-13C3:PS-CV-1, SI-13C3:PS-CV-2</t>
   </si>
   <si>
@@ -1408,79 +1378,49 @@
     <t>10.128.115.101</t>
   </si>
   <si>
-    <t xml:space="preserve">BBB-SALA15-VAC-MKS </t>
-  </si>
-  <si>
     <t>10.128.115.102</t>
   </si>
   <si>
-    <t>BBB-SALA15VAC-4UHV-BO</t>
-  </si>
-  <si>
     <t>10.128.115.103</t>
   </si>
   <si>
-    <t xml:space="preserve">BBB-SALA15VAC-4UHV-SI </t>
-  </si>
-  <si>
     <t>10.128.115.104</t>
   </si>
   <si>
-    <t>IA-15RaCtrl:CO-DCLinkCtrl</t>
-  </si>
-  <si>
     <t>IA-15RaPS01:PS-DCLink-SI, IA-15RaPS02:PS-DCLink-SI</t>
   </si>
   <si>
     <t>10.128.115.106</t>
   </si>
   <si>
-    <t>BBB-SALA15-CON-MBTEMP-BO-36-40</t>
+    <t>BBB-SALA11-CON-MBTEMP-BO-36-40</t>
   </si>
   <si>
     <t>10.128.115.117</t>
   </si>
   <si>
-    <t>BBB-SALA15-CON-MBTEMP-SR-BEFORE-BC</t>
-  </si>
-  <si>
     <t>10.128.115.118</t>
   </si>
   <si>
-    <t>BBB-SALA15-CON-MBTEMP-SR-AFTER-BC</t>
-  </si>
-  <si>
     <t>10.128.115.121</t>
   </si>
   <si>
-    <t>IA-15RaCtrl:CO-PSCtrl-SI1</t>
-  </si>
-  <si>
     <t>SI-15M2:PS-QFP, SI-15M2:PS-QDP1, SI-15M2:PS-QDP2, SI-16M1:PS-QFB, SI-16M1:PS-QDB1, SI-16M1:PS-QDB2, SI-15M1:PS-QS, SI-15M2:PS-QS</t>
   </si>
   <si>
     <t>10.128.115.122</t>
   </si>
   <si>
-    <t>IA-15RaCtrl:CO-PSCtrl-SI2</t>
-  </si>
-  <si>
     <t>SI-15M1:PS-CH, SI-15M1:PS-CV, SI-15M2:PS-CH, SI-15M2:PS-CV, SI-15C2:PS-CH, SI-15C2:PS-CV-1, SI-15C2:PS-CV-2</t>
   </si>
   <si>
     <t>10.128.115.131</t>
   </si>
   <si>
-    <t>IA-15RaCtrl:CO-PSCtrl-SI3</t>
-  </si>
-  <si>
     <t>SI-15C1:PS-Q1, SI-15C1:PS-Q2, SI-15C2:PS-Q3, SI-15C2:PS-Q4, SI-15C4:PS-Q1, SI-15C4:PS-Q2, SI-15C3:PS-Q3, SI-15C3:PS-Q4, SI-15C1:PS-QS, SI-15C2:PS-QS, SI-15C3:PS-QS</t>
   </si>
   <si>
     <t>10.128.115.132</t>
-  </si>
-  <si>
-    <t>IA-15RaCtrl:CO-PSCtrl-SI4</t>
   </si>
   <si>
     <t>SI-15C1:PS-CH, SI-15C1:PS-CV, SI-15C4:PS-CH, SI-15C4:PS-CV, SI-15C3:PS-CH, SI-15C3:PS-CV-1, SI-15C3:PS-CV-2</t>
@@ -2345,7 +2285,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1659029778" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1684761372" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2360,7 +2300,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1659029778" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1684761372" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2376,7 +2316,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1659029778" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1684761372" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -2385,7 +2325,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2401,7 +2341,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1659029778" type="1" fgLvl="100" fgClr="00FFF200" bgLvl="0" bgClr="00FFFF00"/>
+            <pm:shade xmlns:pm="smNativeData" id="1684761372" type="1" fgLvl="100" fgClr="00FFF200" bgLvl="0" bgClr="00FFFF00"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2412,24 +2352,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1659029778" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFF200"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1659029778" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1684761372" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFF200"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2445,7 +2374,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1659029778"/>
+          <pm:border xmlns:pm="smNativeData" id="1684761372"/>
         </ext>
       </extLst>
     </border>
@@ -2464,7 +2393,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1659029778">
+          <pm:border xmlns:pm="smNativeData" id="1684761372">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -2488,7 +2417,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1659029778">
+          <pm:border xmlns:pm="smNativeData" id="1684761372">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -2512,31 +2441,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1659029778">
+          <pm:border xmlns:pm="smNativeData" id="1684761372">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1659029778"/>
         </ext>
       </extLst>
     </border>
@@ -2627,10 +2537,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1659029778" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1684761372" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1659029778" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1684761372" count="1">
         <pm:color name="Color 24" rgb="FFF200"/>
       </pm:colors>
     </ext>
@@ -2643,10 +2553,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -3230,7 +3140,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3241,14 +3151,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3259,10 +3169,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="11.720721" defaultRowHeight="12.90"/>
@@ -3297,11 +3207,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -3313,157 +3223,173 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>321</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3471,7 +3397,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3482,14 +3408,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3596,7 +3522,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>345</v>
@@ -3744,7 +3670,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3755,14 +3681,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3837,17 +3763,17 @@
         <v>12</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>27</v>
@@ -3859,11 +3785,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>27</v>
@@ -3875,11 +3801,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -3888,16 +3814,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -3906,16 +3832,16 @@
         <v>37</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
@@ -3924,16 +3850,16 @@
         <v>37</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -3942,16 +3868,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -3960,14 +3886,14 @@
         <v>37</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3978,14 +3904,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3998,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.90"/>
@@ -4040,11 +3966,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -4060,7 +3986,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -4072,11 +3998,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -4088,29 +4014,29 @@
     </row>
     <row r="5" spans="1:6" ht="26.85" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.35" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -4119,16 +4045,16 @@
         <v>82</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -4140,11 +4066,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>27</v>
@@ -4156,11 +4082,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>27</v>
@@ -4172,11 +4098,11 @@
     </row>
     <row r="10" spans="1:6" ht="39.55" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -4185,16 +4111,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="41.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -4203,16 +4129,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -4221,16 +4147,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.50" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -4239,14 +4165,14 @@
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4257,14 +4183,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4313,11 +4239,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="18" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -4329,27 +4255,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="18" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>27</v>
@@ -4361,11 +4287,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>27</v>
@@ -4377,11 +4303,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="18" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -4390,16 +4316,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -4408,16 +4334,16 @@
         <v>82</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="18" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
@@ -4426,16 +4352,16 @@
         <v>86</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="18" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -4444,16 +4370,16 @@
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="18" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -4462,16 +4388,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="18" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -4480,22 +4406,22 @@
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F12" s="19"/>
     </row>
@@ -4503,7 +4429,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4514,14 +4440,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4535,7 +4461,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.90"/>
@@ -4570,11 +4496,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -4586,11 +4512,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -4602,11 +4528,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -4618,29 +4544,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>27</v>
@@ -4652,11 +4578,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>462</v>
+        <v>352</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -4668,11 +4594,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>27</v>
@@ -4684,11 +4610,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>466</v>
+        <v>356</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -4697,16 +4623,16 @@
         <v>86</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -4715,16 +4641,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>472</v>
+        <v>362</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -4733,16 +4659,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>475</v>
+        <v>365</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -4751,22 +4677,22 @@
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F13" s="19"/>
     </row>
@@ -4774,7 +4700,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4785,14 +4711,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4841,11 +4767,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="18" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -4857,11 +4783,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -4873,11 +4799,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="18" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -4889,11 +4815,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -4902,16 +4828,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -4920,16 +4846,16 @@
         <v>82</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="18" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -4941,11 +4867,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="18" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>27</v>
@@ -4957,11 +4883,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="18" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -4970,16 +4896,16 @@
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="18" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -4988,16 +4914,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="18" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -5006,16 +4932,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="18" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -5024,22 +4950,22 @@
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F13" s="19"/>
     </row>
@@ -5047,7 +4973,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5058,14 +4984,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5114,11 +5040,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -5130,11 +5056,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -5146,11 +5072,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -5162,29 +5088,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -5193,16 +5119,16 @@
         <v>82</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -5214,11 +5140,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>27</v>
@@ -5230,11 +5156,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>27</v>
@@ -5246,11 +5172,11 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -5259,16 +5185,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -5277,16 +5203,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -5295,16 +5221,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -5313,22 +5239,22 @@
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F14" s="19"/>
     </row>
@@ -5336,7 +5262,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5347,14 +5273,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5403,11 +5329,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="18" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -5419,27 +5345,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="18" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
@@ -5448,16 +5374,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>27</v>
@@ -5469,11 +5395,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="18" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>27</v>
@@ -5485,11 +5411,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="18" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -5498,16 +5424,16 @@
         <v>86</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="18" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
@@ -5516,16 +5442,16 @@
         <v>37</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="18" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -5534,16 +5460,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="18" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -5552,14 +5478,14 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5570,14 +5496,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5625,27 +5551,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -5657,11 +5583,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -5673,29 +5599,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>27</v>
@@ -5707,11 +5633,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -5723,11 +5649,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>27</v>
@@ -5739,11 +5665,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -5752,16 +5678,16 @@
         <v>86</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -5770,16 +5696,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -5788,16 +5714,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -5806,22 +5732,22 @@
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F13" s="19"/>
     </row>
@@ -5829,7 +5755,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5840,14 +5766,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6142,7 +6068,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6151,14 +6077,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6207,11 +6133,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="18" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
@@ -6223,11 +6149,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -6239,11 +6165,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="18" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
@@ -6255,11 +6181,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -6268,16 +6194,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="18" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -6286,16 +6212,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>27</v>
@@ -6307,27 +6233,27 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="18" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>27</v>
@@ -6339,11 +6265,11 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>27</v>
@@ -6355,11 +6281,11 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -6368,16 +6294,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -6386,16 +6312,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -6404,16 +6330,16 @@
         <v>44</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -6422,70 +6348,70 @@
         <v>37</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6496,14 +6422,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6551,11 +6477,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
@@ -6564,88 +6490,88 @@
         <v>100</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -6654,50 +6580,50 @@
         <v>100</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6708,14 +6634,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6764,11 +6690,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="24" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>27</v>
@@ -6780,17 +6706,17 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -6798,7 +6724,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6809,14 +6735,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6865,33 +6791,33 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
@@ -6900,18 +6826,18 @@
         <v>100</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
@@ -6920,18 +6846,18 @@
         <v>100</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -6940,318 +6866,318 @@
         <v>100</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>27</v>
@@ -7263,13 +7189,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>27</v>
@@ -7283,7 +7209,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7294,14 +7220,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7351,7 +7277,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7362,14 +7288,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7418,29 +7344,29 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
@@ -7449,16 +7375,16 @@
         <v>100</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
@@ -7467,16 +7393,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -7485,94 +7411,94 @@
         <v>100</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -7583,7 +7509,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7594,14 +7520,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7650,27 +7576,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7681,14 +7607,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7737,47 +7663,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>27</v>
@@ -7791,7 +7717,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7802,14 +7728,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7858,45 +7784,45 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7907,14 +7833,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7963,45 +7889,45 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8012,14 +7938,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8241,7 +8167,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8250,14 +8176,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8306,45 +8232,45 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8355,14 +8281,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8411,49 +8337,49 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8464,14 +8390,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8484,7 +8410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8682,7 +8608,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8691,14 +8617,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8937,7 +8863,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8946,14 +8872,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8964,10 +8890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.009009" defaultRowHeight="12.90"/>
@@ -9100,18 +9026,18 @@
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -9120,65 +9046,48 @@
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9187,14 +9096,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9245,10 +9154,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -9259,10 +9168,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -9273,10 +9182,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -9287,10 +9196,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -9301,10 +9210,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
@@ -9315,10 +9224,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -9329,10 +9238,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -9341,15 +9250,15 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -9358,15 +9267,15 @@
         <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -9375,15 +9284,15 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -9392,15 +9301,15 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
@@ -9409,15 +9318,15 @@
         <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
@@ -9426,14 +9335,14 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9442,14 +9351,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9500,10 +9409,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -9514,10 +9423,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -9528,10 +9437,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -9542,10 +9451,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -9556,10 +9465,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
@@ -9570,10 +9479,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -9582,15 +9491,15 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -9599,15 +9508,15 @@
         <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -9616,15 +9525,15 @@
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -9633,15 +9542,15 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -9650,15 +9559,15 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
@@ -9667,14 +9576,14 @@
         <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9683,14 +9592,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9739,11 +9648,11 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -9755,11 +9664,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -9771,11 +9680,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -9787,11 +9696,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>27</v>
@@ -9803,11 +9712,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>27</v>
@@ -9819,11 +9728,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>27</v>
@@ -9835,99 +9744,99 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="17" customFormat="1">
       <c r="A11" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1659029778" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1684761372" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9938,14 +9847,14 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1659029778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1684761372" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1659029778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1684761372" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="101" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="790">
   <si>
     <t xml:space="preserve">BBB_IP_1</t>
   </si>
@@ -1721,6 +1721,15 @@
   </si>
   <si>
     <t xml:space="preserve">BBB-SIMAR-IA17-RaCtrl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.128.117.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA-17RaCtrl:CO-PSCtrl-SI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-17SA:PS-CH-1, SI-17SA:PS-CH-2, SI-17SA:PS-CV-1, SI-17SA:PS-CV-2</t>
   </si>
   <si>
     <t xml:space="preserve">10.128.118.101</t>
@@ -4853,10 +4862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5108,6 +5117,24 @@
         <v>103</v>
       </c>
       <c r="F14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>559</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5163,11 +5190,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -5179,11 +5206,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -5195,11 +5222,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -5208,16 +5235,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -5229,11 +5256,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -5245,11 +5272,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -5258,16 +5285,16 @@
         <v>89</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
@@ -5276,16 +5303,16 @@
         <v>37</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -5294,16 +5321,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="21" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -5312,16 +5339,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
@@ -5384,11 +5411,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -5400,11 +5427,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -5416,11 +5443,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -5432,11 +5459,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -5445,16 +5472,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -5466,11 +5493,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -5482,11 +5509,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -5498,11 +5525,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -5511,16 +5538,16 @@
         <v>89</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -5529,16 +5556,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -5547,16 +5574,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -5565,16 +5592,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>66</v>
@@ -6995,11 +7022,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -7011,11 +7038,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -7027,11 +7054,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -7043,11 +7070,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -7056,16 +7083,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -7074,16 +7101,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -7095,27 +7122,27 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -7127,11 +7154,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>27</v>
@@ -7143,11 +7170,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -7156,16 +7183,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -7174,16 +7201,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
@@ -7192,16 +7219,16 @@
         <v>44</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>19</v>
@@ -7210,80 +7237,80 @@
         <v>37</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="8" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>66</v>
@@ -7346,11 +7373,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
@@ -7359,16 +7386,16 @@
         <v>103</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -7377,70 +7404,70 @@
         <v>311</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -7449,52 +7476,52 @@
         <v>103</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>66</v>
@@ -7558,11 +7585,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="25" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>27</v>
@@ -7574,17 +7601,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -7642,33 +7669,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -7677,18 +7704,18 @@
         <v>103</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -7697,18 +7724,18 @@
         <v>103</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -7717,318 +7744,318 @@
         <v>103</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>27</v>
@@ -8040,13 +8067,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>27</v>
@@ -8161,29 +8188,29 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -8192,16 +8219,16 @@
         <v>103</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -8210,16 +8237,16 @@
         <v>103</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -8228,88 +8255,88 @@
         <v>103</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>27</v>
@@ -8321,11 +8348,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
@@ -8337,11 +8364,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>66</v>
@@ -8353,11 +8380,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>66</v>
@@ -8421,29 +8448,29 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>66</v>
@@ -8507,47 +8534,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>27</v>
@@ -8611,47 +8638,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>66</v>
@@ -8715,38 +8742,38 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -10078,47 +10105,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>66</v>
@@ -10146,7 +10173,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -10182,42 +10209,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -2719,7 +2719,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
@@ -3103,7 +3103,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
@@ -3361,7 +3361,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -3633,7 +3633,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
@@ -3855,7 +3855,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.39"/>
@@ -4118,7 +4118,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
@@ -4358,7 +4358,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
@@ -4612,7 +4612,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.45"/>
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -5158,7 +5158,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
@@ -5380,7 +5380,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.63"/>
@@ -6990,7 +6990,7 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -7342,7 +7342,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.01"/>
@@ -7553,7 +7553,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
@@ -7637,7 +7637,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
@@ -8105,7 +8105,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -8156,7 +8156,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8416,7 +8416,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8502,7 +8502,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8606,7 +8606,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8710,7 +8710,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -10073,7 +10073,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -10177,7 +10177,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
@@ -14106,7 +14106,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="53.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="12" width="10"/>
@@ -15399,7 +15399,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="53.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="12" width="10"/>
@@ -16670,7 +16670,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>

--- a/src/scripts/AUTOCONFIG.xlsx
+++ b/src/scripts/AUTOCONFIG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="101" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="793">
   <si>
     <t xml:space="preserve">BBB_IP_1</t>
   </si>
@@ -1033,6 +1033,12 @@
     <t xml:space="preserve">SI-09C1:PS-CH, SI-09C1:PS-CV, SI-09C4:PS-CH, SI-09C4:PS-CV, SI-09C3:PS-CH, SI-09C3:PS-CV-1, SI-09C3:PS-CV-2</t>
   </si>
   <si>
+    <t xml:space="preserve">10.128.109.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBB-SIMAR-IA09-RaCtrl1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.128.110.101</t>
   </si>
   <si>
@@ -1393,6 +1399,12 @@
     <t xml:space="preserve">SI-13C1:PS-CH, SI-13C1:PS-CV, SI-13C4:PS-CH, SI-13C4:PS-CV, SI-13C3:PS-CH, SI-13C3:PS-CV-1, SI-13C3:PS-CV-2</t>
   </si>
   <si>
+    <t xml:space="preserve">10.128.113.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBB-SIMAR-IA13-RaCtrl1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.128.114.101</t>
   </si>
   <si>
@@ -1532,9 +1544,6 @@
   </si>
   <si>
     <t xml:space="preserve">BBB-SIMAR-IA15-RaCtrl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9</t>
   </si>
   <si>
     <t xml:space="preserve">10.128.116.101</t>
@@ -2471,14 +2480,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFF200"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
   </fills>
@@ -2612,7 +2621,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2624,15 +2633,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2719,7 +2728,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
@@ -3084,7 +3093,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3103,7 +3112,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
@@ -3135,11 +3144,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -3151,27 +3160,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>27</v>
@@ -3183,11 +3192,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -3199,11 +3208,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -3212,16 +3221,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -3230,16 +3239,16 @@
         <v>85</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
@@ -3248,16 +3257,16 @@
         <v>89</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -3266,16 +3275,16 @@
         <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -3284,16 +3293,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -3302,34 +3311,34 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>66</v>
@@ -3342,7 +3351,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3361,7 +3370,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -3393,11 +3402,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -3409,11 +3418,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -3425,11 +3434,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -3441,11 +3450,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -3454,16 +3463,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -3472,16 +3481,16 @@
         <v>85</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -3493,11 +3502,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -3509,11 +3518,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -3525,11 +3534,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -3538,16 +3547,16 @@
         <v>89</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -3556,16 +3565,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -3574,16 +3583,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
@@ -3592,16 +3601,16 @@
         <v>37</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>66</v>
@@ -3614,7 +3623,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3633,7 +3642,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
@@ -3665,11 +3674,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -3681,27 +3690,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>27</v>
@@ -3713,11 +3722,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -3729,11 +3738,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -3742,16 +3751,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -3760,16 +3769,16 @@
         <v>37</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
@@ -3778,16 +3787,16 @@
         <v>37</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -3796,16 +3805,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -3814,16 +3823,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
@@ -3836,7 +3845,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3851,11 +3860,11 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.39"/>
@@ -3893,11 +3902,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -3909,11 +3918,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -3925,11 +3934,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -3941,11 +3950,11 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -3954,16 +3963,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -3972,16 +3981,16 @@
         <v>85</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -3993,11 +4002,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -4009,11 +4018,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -4025,11 +4034,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -4038,16 +4047,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4056,16 +4065,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -4074,16 +4083,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
@@ -4092,14 +4101,29 @@
         <v>37</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4118,7 +4142,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
@@ -4150,11 +4174,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -4166,27 +4190,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>27</v>
@@ -4198,11 +4222,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -4214,11 +4238,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -4227,16 +4251,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -4245,16 +4269,16 @@
         <v>85</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
@@ -4263,16 +4287,16 @@
         <v>89</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="21" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -4281,16 +4305,16 @@
         <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="21" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -4299,16 +4323,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="21" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4317,16 +4341,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>66</v>
@@ -4339,7 +4363,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4355,10 +4379,10 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
@@ -4390,11 +4414,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -4406,11 +4430,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -4422,11 +4446,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -4438,11 +4462,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -4451,16 +4475,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -4472,11 +4496,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -4488,11 +4512,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -4504,11 +4528,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -4517,16 +4541,16 @@
         <v>89</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -4535,16 +4559,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4553,16 +4577,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -4571,29 +4595,29 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>494</v>
+        <v>103</v>
       </c>
       <c r="F13" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4612,7 +4636,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.45"/>
@@ -4644,11 +4668,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -4660,11 +4684,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -4676,11 +4700,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -4692,11 +4716,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -4705,16 +4729,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -4723,16 +4747,16 @@
         <v>85</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -4744,11 +4768,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -4760,11 +4784,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="21" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -4773,16 +4797,16 @@
         <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="21" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -4791,16 +4815,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4809,16 +4833,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="21" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -4827,16 +4851,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>66</v>
@@ -4849,7 +4873,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4864,11 +4888,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -4900,11 +4924,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -4916,11 +4940,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -4932,11 +4956,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -4948,11 +4972,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -4961,16 +4985,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -4979,16 +5003,16 @@
         <v>85</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -5000,11 +5024,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -5016,11 +5040,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -5032,11 +5056,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -5045,16 +5069,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -5063,16 +5087,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -5081,16 +5105,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
@@ -5099,16 +5123,16 @@
         <v>37</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="20" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>66</v>
@@ -5120,11 +5144,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
@@ -5133,13 +5157,13 @@
         <v>85</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5158,7 +5182,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
@@ -5190,11 +5214,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -5206,27 +5230,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -5235,16 +5259,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -5256,11 +5280,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -5272,11 +5296,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -5285,16 +5309,16 @@
         <v>89</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
@@ -5303,16 +5327,16 @@
         <v>37</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="21" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -5321,16 +5345,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="21" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -5339,16 +5363,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
@@ -5361,7 +5385,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5380,7 +5404,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.63"/>
@@ -5411,27 +5435,27 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -5443,11 +5467,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -5459,11 +5483,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -5472,16 +5496,16 @@
         <v>311</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -5493,11 +5517,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -5509,11 +5533,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -5525,11 +5549,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -5538,16 +5562,16 @@
         <v>89</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -5556,16 +5580,16 @@
         <v>37</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -5574,16 +5598,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -5592,16 +5616,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>66</v>
@@ -5614,7 +5638,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6970,8 +6994,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6986,11 +7010,11 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -7022,11 +7046,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="21" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
@@ -7038,11 +7062,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="21" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -7054,11 +7078,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -7070,11 +7094,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -7083,16 +7107,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -7101,16 +7125,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
@@ -7122,27 +7146,27 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="21" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -7154,11 +7178,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>27</v>
@@ -7170,11 +7194,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -7183,16 +7207,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
@@ -7201,16 +7225,16 @@
         <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
@@ -7219,16 +7243,16 @@
         <v>44</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>19</v>
@@ -7237,80 +7261,80 @@
         <v>37</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>66</v>
@@ -7323,7 +7347,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7342,7 +7366,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.01"/>
@@ -7373,11 +7397,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
@@ -7386,16 +7410,16 @@
         <v>103</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -7404,70 +7428,70 @@
         <v>311</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
@@ -7476,52 +7500,52 @@
         <v>103</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>66</v>
@@ -7534,7 +7558,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7553,7 +7577,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
@@ -7585,11 +7609,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="25" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>27</v>
@@ -7601,24 +7625,24 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F3" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7637,7 +7661,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
@@ -7669,33 +7693,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -7704,18 +7728,18 @@
         <v>103</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -7724,18 +7748,18 @@
         <v>103</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -7744,318 +7768,318 @@
         <v>103</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>27</v>
@@ -8067,13 +8091,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>27</v>
@@ -8086,7 +8110,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8105,7 +8129,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -8137,7 +8161,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8156,7 +8180,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8188,29 +8212,29 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
@@ -8219,16 +8243,16 @@
         <v>103</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -8237,16 +8261,16 @@
         <v>103</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>19</v>
@@ -8255,88 +8279,88 @@
         <v>103</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>27</v>
@@ -8348,11 +8372,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
@@ -8364,11 +8388,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>66</v>
@@ -8380,11 +8404,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>66</v>
@@ -8397,7 +8421,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8416,7 +8440,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8448,29 +8472,29 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>66</v>
@@ -8483,7 +8507,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8502,7 +8526,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8534,47 +8558,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>27</v>
@@ -8587,7 +8611,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8606,7 +8630,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8638,47 +8662,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>66</v>
@@ -8691,7 +8715,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8710,7 +8734,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -8742,44 +8766,44 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -10053,8 +10077,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10073,7 +10097,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -10105,47 +10129,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>66</v>
@@ -10158,7 +10182,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -10177,7 +10201,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
@@ -10209,48 +10233,48 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11510,8 +11534,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12803,8 +12827,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14080,8 +14104,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15373,8 +15397,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15390,7 +15414,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16650,8 +16674,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16666,11 +16690,11 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -16886,11 +16910,26 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
